--- a/Code/Results/Cases/Case_0_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9460555240128988</v>
+        <v>1.033209817776665</v>
       </c>
       <c r="D2">
-        <v>0.9612057272533838</v>
+        <v>1.040364061206413</v>
       </c>
       <c r="E2">
-        <v>0.9586374798973005</v>
+        <v>1.032405580217792</v>
       </c>
       <c r="F2">
-        <v>0.9614330763672276</v>
+        <v>1.047653177649391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.969978782993101</v>
+        <v>1.038335797327944</v>
       </c>
       <c r="K2">
-        <v>0.9732333586063607</v>
+        <v>1.043146619765433</v>
       </c>
       <c r="L2">
-        <v>0.9707048067424675</v>
+        <v>1.035210904742589</v>
       </c>
       <c r="M2">
-        <v>0.973457206796698</v>
+        <v>1.050415214237925</v>
       </c>
       <c r="N2">
-        <v>0.9914037136874977</v>
+        <v>1.016343760030791</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9569180184687703</v>
+        <v>1.035205294500164</v>
       </c>
       <c r="D3">
-        <v>0.9710761024774067</v>
+        <v>1.042231984745102</v>
       </c>
       <c r="E3">
-        <v>0.9678304149821763</v>
+        <v>1.034140018643152</v>
       </c>
       <c r="F3">
-        <v>0.9721648474147997</v>
+        <v>1.049703860060464</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9786562563054698</v>
+        <v>1.039968592958495</v>
       </c>
       <c r="K3">
-        <v>0.9820929541300137</v>
+        <v>1.04482217148767</v>
       </c>
       <c r="L3">
-        <v>0.9788921598942637</v>
+        <v>1.036751634166233</v>
       </c>
       <c r="M3">
-        <v>0.9831667245088987</v>
+        <v>1.052274576819547</v>
       </c>
       <c r="N3">
-        <v>0.9946169708113969</v>
+        <v>1.01692184552827</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9636488967965161</v>
+        <v>1.036492677772039</v>
       </c>
       <c r="D4">
-        <v>0.9772001895763587</v>
+        <v>1.043437184137004</v>
       </c>
       <c r="E4">
-        <v>0.9735350127619892</v>
+        <v>1.035258926093309</v>
       </c>
       <c r="F4">
-        <v>0.9788254772273485</v>
+        <v>1.051027453646606</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.984030502616914</v>
+        <v>1.041021176213342</v>
       </c>
       <c r="K4">
-        <v>0.9875818066033579</v>
+        <v>1.045902485317221</v>
       </c>
       <c r="L4">
-        <v>0.9839637018048978</v>
+        <v>1.037744766336921</v>
       </c>
       <c r="M4">
-        <v>0.9891863615453886</v>
+        <v>1.053474000180529</v>
       </c>
       <c r="N4">
-        <v>0.9966037883651592</v>
+        <v>1.017293601880226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9664131936629101</v>
+        <v>1.037033002415418</v>
       </c>
       <c r="D5">
-        <v>0.979717010297141</v>
+        <v>1.043943040265627</v>
       </c>
       <c r="E5">
-        <v>0.9758795718087541</v>
+        <v>1.035728522832348</v>
       </c>
       <c r="F5">
-        <v>0.9815633563114691</v>
+        <v>1.051583117563117</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9862368558848644</v>
+        <v>1.041462757539928</v>
       </c>
       <c r="K5">
-        <v>0.9898356357325422</v>
+        <v>1.046355740361174</v>
       </c>
       <c r="L5">
-        <v>0.9860459386599082</v>
+        <v>1.038161382251197</v>
       </c>
       <c r="M5">
-        <v>0.9916591769687062</v>
+        <v>1.053977371825857</v>
       </c>
       <c r="N5">
-        <v>0.9974185684920874</v>
+        <v>1.017449343421187</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9668736567344969</v>
+        <v>1.037123673732544</v>
       </c>
       <c r="D6">
-        <v>0.9801363465912093</v>
+        <v>1.044027928877299</v>
       </c>
       <c r="E6">
-        <v>0.9762702133025527</v>
+        <v>1.035807324319759</v>
       </c>
       <c r="F6">
-        <v>0.9820195580196451</v>
+        <v>1.051676371226323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9866043291090991</v>
+        <v>1.041536847334351</v>
       </c>
       <c r="K6">
-        <v>0.9902110409451852</v>
+        <v>1.046431791159426</v>
       </c>
       <c r="L6">
-        <v>0.9863927479754926</v>
+        <v>1.038231281835209</v>
       </c>
       <c r="M6">
-        <v>0.9920711188220838</v>
+        <v>1.054061839995004</v>
       </c>
       <c r="N6">
-        <v>0.9975542165010753</v>
+        <v>1.017475461354829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9636860830246732</v>
+        <v>1.036499901085955</v>
       </c>
       <c r="D7">
-        <v>0.9772340400544784</v>
+        <v>1.043443946563794</v>
       </c>
       <c r="E7">
-        <v>0.973566545910403</v>
+        <v>1.035265203953129</v>
       </c>
       <c r="F7">
-        <v>0.9788622986052674</v>
+        <v>1.051034881467698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9840601865160936</v>
+        <v>1.041027080251329</v>
       </c>
       <c r="K7">
-        <v>0.9876121275586451</v>
+        <v>1.045908545277516</v>
       </c>
       <c r="L7">
-        <v>0.9839917152993516</v>
+        <v>1.037750336678346</v>
       </c>
       <c r="M7">
-        <v>0.9892196244036627</v>
+        <v>1.053480729630006</v>
       </c>
       <c r="N7">
-        <v>0.996614753955072</v>
+        <v>1.017295685038061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9497920789261972</v>
+        <v>1.033885004760162</v>
       </c>
       <c r="D8">
-        <v>0.9645991857510525</v>
+        <v>1.040996066642931</v>
       </c>
       <c r="E8">
-        <v>0.9617978148991783</v>
+        <v>1.032992455666477</v>
       </c>
       <c r="F8">
-        <v>0.9651222760792705</v>
+        <v>1.048346920193924</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9729641991583008</v>
+        <v>1.038888436951764</v>
       </c>
       <c r="K8">
-        <v>0.9762810401096037</v>
+        <v>1.043713695853899</v>
       </c>
       <c r="L8">
-        <v>0.9735213909597966</v>
+        <v>1.035732404095281</v>
       </c>
       <c r="M8">
-        <v>0.9767963739940658</v>
+        <v>1.051044375663712</v>
       </c>
       <c r="N8">
-        <v>0.9925098321630865</v>
+        <v>1.016539607745481</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9227085806157674</v>
+        <v>1.029246850724944</v>
       </c>
       <c r="D9">
-        <v>0.9400475653283785</v>
+        <v>1.036655025604318</v>
       </c>
       <c r="E9">
-        <v>0.9389397192656765</v>
+        <v>1.028960729416596</v>
       </c>
       <c r="F9">
-        <v>0.9384374824611634</v>
+        <v>1.0435837807031</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9513204746276301</v>
+        <v>1.035088772547041</v>
       </c>
       <c r="K9">
-        <v>0.954194475542939</v>
+        <v>1.039815468083833</v>
       </c>
       <c r="L9">
-        <v>0.9531077602020436</v>
+        <v>1.032146442497025</v>
       </c>
       <c r="M9">
-        <v>0.9526151244205632</v>
+        <v>1.046721816072014</v>
       </c>
       <c r="N9">
-        <v>0.9844815350710588</v>
+        <v>1.015189358393274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9023489982790136</v>
+        <v>1.026132796579068</v>
       </c>
       <c r="D10">
-        <v>0.9216638944939236</v>
+        <v>1.033741098287959</v>
       </c>
       <c r="E10">
-        <v>0.921837683267195</v>
+        <v>1.026253606906328</v>
       </c>
       <c r="F10">
-        <v>0.9184609986025513</v>
+        <v>1.040388965633012</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9350547389425462</v>
+        <v>1.0325334997304</v>
       </c>
       <c r="K10">
-        <v>0.937607865678628</v>
+        <v>1.037194787113908</v>
       </c>
       <c r="L10">
-        <v>0.9377777660794323</v>
+        <v>1.029734393480451</v>
       </c>
       <c r="M10">
-        <v>0.9344769831838027</v>
+        <v>1.043818955894509</v>
       </c>
       <c r="N10">
-        <v>0.9784434903595267</v>
+        <v>1.0142767017768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8928177329775567</v>
+        <v>1.024778827063529</v>
       </c>
       <c r="D11">
-        <v>0.9130806611896615</v>
+        <v>1.032474308917279</v>
       </c>
       <c r="E11">
-        <v>0.9138579429524454</v>
+        <v>1.025076533615259</v>
       </c>
       <c r="F11">
-        <v>0.9091335060460795</v>
+        <v>1.039000640693447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9274454574282956</v>
+        <v>1.031421500692188</v>
       </c>
       <c r="K11">
-        <v>0.9298516386490997</v>
+        <v>1.036054532196016</v>
       </c>
       <c r="L11">
-        <v>0.9306102907427435</v>
+        <v>1.028684610337648</v>
       </c>
       <c r="M11">
-        <v>0.9259997488515012</v>
+        <v>1.042556655902951</v>
       </c>
       <c r="N11">
-        <v>0.9756205705785806</v>
+        <v>1.013878453048855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8891507563915925</v>
+        <v>1.024275036930368</v>
       </c>
       <c r="D12">
-        <v>0.9097825073075209</v>
+        <v>1.032002983224955</v>
       </c>
       <c r="E12">
-        <v>0.9107926561665634</v>
+        <v>1.024638560003959</v>
       </c>
       <c r="F12">
-        <v>0.9055490959076841</v>
+        <v>1.038484182377525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9245192334491192</v>
+        <v>1.031007596704836</v>
       </c>
       <c r="K12">
-        <v>0.9268694158263386</v>
+        <v>1.035630142264607</v>
       </c>
       <c r="L12">
-        <v>0.9278547258828019</v>
+        <v>1.028293847671017</v>
       </c>
       <c r="M12">
-        <v>0.9227409137802043</v>
+        <v>1.042086951809284</v>
       </c>
       <c r="N12">
-        <v>0.9745355482377553</v>
+        <v>1.013730057304736</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8899434304108071</v>
+        <v>1.024383141274503</v>
       </c>
       <c r="D13">
-        <v>0.9104952590536382</v>
+        <v>1.032104120081374</v>
       </c>
       <c r="E13">
-        <v>0.9114550363429013</v>
+        <v>1.024732541443186</v>
       </c>
       <c r="F13">
-        <v>0.9063237250202857</v>
+        <v>1.038594999873627</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405786</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9251517145077557</v>
+        <v>1.031096419737626</v>
       </c>
       <c r="K13">
-        <v>0.927513976970832</v>
+        <v>1.035721214142586</v>
       </c>
       <c r="L13">
-        <v>0.928450283390592</v>
+        <v>1.028377705356544</v>
       </c>
       <c r="M13">
-        <v>0.9234452341449976</v>
+        <v>1.042187742914528</v>
       </c>
       <c r="N13">
-        <v>0.9747700370074849</v>
+        <v>1.013761910028578</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8925173322334125</v>
+        <v>1.024737201444767</v>
       </c>
       <c r="D14">
-        <v>0.9128103881216199</v>
+        <v>1.032435365131201</v>
       </c>
       <c r="E14">
-        <v>0.9136067316526919</v>
+        <v>1.025040346147723</v>
       </c>
       <c r="F14">
-        <v>0.9088397818651721</v>
+        <v>1.038957966018964</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9272057100437611</v>
+        <v>1.031387304905238</v>
       </c>
       <c r="K14">
-        <v>0.9296072927157827</v>
+        <v>1.036019469445282</v>
       </c>
       <c r="L14">
-        <v>0.9303845093049606</v>
+        <v>1.028652326765827</v>
       </c>
       <c r="M14">
-        <v>0.9257327270562978</v>
+        <v>1.042517847098966</v>
       </c>
       <c r="N14">
-        <v>0.9755316608266041</v>
+        <v>1.01386619621502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8940857568690419</v>
+        <v>1.024955234008424</v>
       </c>
       <c r="D15">
-        <v>0.9142216818678387</v>
+        <v>1.032639351487304</v>
       </c>
       <c r="E15">
-        <v>0.9149185305033377</v>
+        <v>1.025229893850178</v>
       </c>
       <c r="F15">
-        <v>0.9103735189346892</v>
+        <v>1.039181498183369</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9284575127924922</v>
+        <v>1.031566414425138</v>
       </c>
       <c r="K15">
-        <v>0.9308831268919893</v>
+        <v>1.036203121201448</v>
       </c>
       <c r="L15">
-        <v>0.9315634226620393</v>
+        <v>1.028821419880529</v>
       </c>
       <c r="M15">
-        <v>0.9271269857743044</v>
+        <v>1.042721124426384</v>
       </c>
       <c r="N15">
-        <v>0.9759959134016783</v>
+        <v>1.013930388052359</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9029649599264238</v>
+        <v>1.026222535333187</v>
       </c>
       <c r="D16">
-        <v>0.9222191071924266</v>
+        <v>1.033825062488291</v>
       </c>
       <c r="E16">
-        <v>0.922353978728612</v>
+        <v>1.026331620682546</v>
       </c>
       <c r="F16">
-        <v>0.9190643281329828</v>
+        <v>1.040480997444552</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.935546640644174</v>
+        <v>1.032607180461786</v>
       </c>
       <c r="K16">
-        <v>0.9381093339129563</v>
+        <v>1.037270344456556</v>
       </c>
       <c r="L16">
-        <v>0.9382412015603984</v>
+        <v>1.029803949482805</v>
       </c>
       <c r="M16">
-        <v>0.9350251540446599</v>
+        <v>1.043902615730691</v>
       </c>
       <c r="N16">
-        <v>0.9786260368115912</v>
+        <v>1.014303067002877</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9083310650251677</v>
+        <v>1.027015969617862</v>
       </c>
       <c r="D17">
-        <v>0.9270585890359599</v>
+        <v>1.034567459787456</v>
       </c>
       <c r="E17">
-        <v>0.9268548257799261</v>
+        <v>1.027021383557602</v>
       </c>
       <c r="F17">
-        <v>0.9243231361000002</v>
+        <v>1.041294793619089</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9398326161293881</v>
+        <v>1.033258522782283</v>
       </c>
       <c r="K17">
-        <v>0.9424790168550569</v>
+        <v>1.037938300148852</v>
       </c>
       <c r="L17">
-        <v>0.9422796120765731</v>
+        <v>1.030418816083113</v>
       </c>
       <c r="M17">
-        <v>0.939802287617777</v>
+        <v>1.044642284737378</v>
       </c>
       <c r="N17">
-        <v>0.9802167994544567</v>
+        <v>1.014536012922803</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9113935127279505</v>
+        <v>1.027478231641089</v>
       </c>
       <c r="D18">
-        <v>0.9298225631289546</v>
+        <v>1.03500000313566</v>
       </c>
       <c r="E18">
-        <v>0.9294258507643572</v>
+        <v>1.027423242214803</v>
       </c>
       <c r="F18">
-        <v>0.9273265596099081</v>
+        <v>1.041768991645075</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.942279098804956</v>
+        <v>1.033637905997685</v>
       </c>
       <c r="K18">
-        <v>0.9449735691608833</v>
+        <v>1.03832738008622</v>
       </c>
       <c r="L18">
-        <v>0.9445851444157413</v>
+        <v>1.030776942719599</v>
       </c>
       <c r="M18">
-        <v>0.9425298651946</v>
+        <v>1.045073207538318</v>
       </c>
       <c r="N18">
-        <v>0.9811249635700253</v>
+        <v>1.014671591430781</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9124267814964113</v>
+        <v>1.027635761231493</v>
       </c>
       <c r="D19">
-        <v>0.9307554624849422</v>
+        <v>1.035147407869116</v>
       </c>
       <c r="E19">
-        <v>0.9302936977767988</v>
+        <v>1.02756018692078</v>
       </c>
       <c r="F19">
-        <v>0.928340275964593</v>
+        <v>1.041930601136433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9431046081907793</v>
+        <v>1.033767176070035</v>
       </c>
       <c r="K19">
-        <v>0.9458153465855048</v>
+        <v>1.038459957592012</v>
       </c>
       <c r="L19">
-        <v>0.945363151050188</v>
+        <v>1.030898968036121</v>
       </c>
       <c r="M19">
-        <v>0.9434503492876218</v>
+        <v>1.045220054771652</v>
       </c>
       <c r="N19">
-        <v>0.9814314185292727</v>
+        <v>1.014717770427696</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.907762438446526</v>
+        <v>1.026930897155922</v>
       </c>
       <c r="D20">
-        <v>0.9265455468514542</v>
+        <v>1.034487857882049</v>
       </c>
       <c r="E20">
-        <v>0.9263776341108898</v>
+        <v>1.026947427148485</v>
       </c>
       <c r="F20">
-        <v>0.92376564574697</v>
+        <v>1.04120753038543</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9393783951991643</v>
+        <v>1.033188695298134</v>
       </c>
       <c r="K20">
-        <v>0.9420158944356498</v>
+        <v>1.037866689545705</v>
       </c>
       <c r="L20">
-        <v>0.9418515889545142</v>
+        <v>1.030352900111843</v>
       </c>
       <c r="M20">
-        <v>0.9392959379176905</v>
+        <v>1.044562978573577</v>
       </c>
       <c r="N20">
-        <v>0.9800481965423857</v>
+        <v>1.014511050593771</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8917630579313249</v>
+        <v>1.02463296368405</v>
       </c>
       <c r="D21">
-        <v>0.9121318289981497</v>
+        <v>1.032337843569791</v>
       </c>
       <c r="E21">
-        <v>0.9129760461586187</v>
+        <v>1.024949726405382</v>
       </c>
       <c r="F21">
-        <v>0.9081023403413917</v>
+        <v>1.038851103099653</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9266037526188772</v>
+        <v>1.031301670356717</v>
       </c>
       <c r="K21">
-        <v>0.9289937975695792</v>
+        <v>1.035931664315433</v>
       </c>
       <c r="L21">
-        <v>0.9298176302665178</v>
+        <v>1.028571480603898</v>
       </c>
       <c r="M21">
-        <v>0.9250623076748702</v>
+        <v>1.04242066276641</v>
       </c>
       <c r="N21">
-        <v>0.9753084364006983</v>
+        <v>1.013835499531121</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8809572275756622</v>
+        <v>1.023183138755013</v>
       </c>
       <c r="D22">
-        <v>0.9024215206533387</v>
+        <v>1.030981496454732</v>
       </c>
       <c r="E22">
-        <v>0.9039534740567982</v>
+        <v>1.023689305324463</v>
       </c>
       <c r="F22">
-        <v>0.897548477644787</v>
+        <v>1.037365038888681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9179839313496015</v>
+        <v>1.030110246246444</v>
       </c>
       <c r="K22">
-        <v>0.9202100452902046</v>
+        <v>1.034710115551421</v>
       </c>
       <c r="L22">
-        <v>0.9217021752955218</v>
+        <v>1.027446638298702</v>
       </c>
       <c r="M22">
-        <v>0.9154649050477408</v>
+        <v>1.041068889878637</v>
       </c>
       <c r="N22">
-        <v>0.9721137335669033</v>
+        <v>1.01340803931967</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8867642093408046</v>
+        <v>1.023952204531718</v>
       </c>
       <c r="D23">
-        <v>0.9076372430145903</v>
+        <v>1.031700961772326</v>
       </c>
       <c r="E23">
-        <v>0.9087991630330934</v>
+        <v>1.024357902465237</v>
       </c>
       <c r="F23">
-        <v>0.9032175345637828</v>
+        <v>1.038153264580367</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9226152238950821</v>
+        <v>1.030742322659691</v>
       </c>
       <c r="K23">
-        <v>0.9249291187176972</v>
+        <v>1.035358156535574</v>
       </c>
       <c r="L23">
-        <v>0.9260619950357882</v>
+        <v>1.028043400484504</v>
       </c>
       <c r="M23">
-        <v>0.920620809165121</v>
+        <v>1.04178595569624</v>
       </c>
       <c r="N23">
-        <v>0.9738297558604982</v>
+        <v>1.013634904183486</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9080195835555035</v>
+        <v>1.026969339391033</v>
       </c>
       <c r="D24">
-        <v>0.9267775490921324</v>
+        <v>1.034523828052759</v>
       </c>
       <c r="E24">
-        <v>0.9265934230240759</v>
+        <v>1.026980846312841</v>
       </c>
       <c r="F24">
-        <v>0.9240177479579849</v>
+        <v>1.041246962352938</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9395838022021686</v>
+        <v>1.033220248981015</v>
       </c>
       <c r="K24">
-        <v>0.9422253259576152</v>
+        <v>1.03789904892345</v>
       </c>
       <c r="L24">
-        <v>0.9420451477101128</v>
+        <v>1.030382686291499</v>
       </c>
       <c r="M24">
-        <v>0.9395249162044671</v>
+        <v>1.044598815201521</v>
       </c>
       <c r="N24">
-        <v>0.9801244414470867</v>
+        <v>1.014522330906809</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9300688501248029</v>
+        <v>1.030449680348662</v>
       </c>
       <c r="D25">
-        <v>0.9467092273805261</v>
+        <v>1.037780694888123</v>
       </c>
       <c r="E25">
-        <v>0.9451401161389529</v>
+        <v>1.030006337236424</v>
       </c>
       <c r="F25">
-        <v>0.9456767683210138</v>
+        <v>1.044818472727445</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9572028131682556</v>
+        <v>1.036074890452035</v>
       </c>
       <c r="K25">
-        <v>0.9601952727958633</v>
+        <v>1.040827012393664</v>
       </c>
       <c r="L25">
-        <v>0.9586542712110643</v>
+        <v>1.033077186371113</v>
       </c>
       <c r="M25">
-        <v>0.9591812959669868</v>
+        <v>1.047842926655275</v>
       </c>
       <c r="N25">
-        <v>0.9866650098779141</v>
+        <v>1.015540600153758</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033209817776665</v>
+        <v>0.9460555240128995</v>
       </c>
       <c r="D2">
-        <v>1.040364061206413</v>
+        <v>0.9612057272533846</v>
       </c>
       <c r="E2">
-        <v>1.032405580217792</v>
+        <v>0.9586374798973012</v>
       </c>
       <c r="F2">
-        <v>1.047653177649391</v>
+        <v>0.9614330763672282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.038335797327944</v>
+        <v>0.9699787829931019</v>
       </c>
       <c r="K2">
-        <v>1.043146619765433</v>
+        <v>0.9732333586063614</v>
       </c>
       <c r="L2">
-        <v>1.035210904742589</v>
+        <v>0.9707048067424684</v>
       </c>
       <c r="M2">
-        <v>1.050415214237925</v>
+        <v>0.9734572067966983</v>
       </c>
       <c r="N2">
-        <v>1.016343760030791</v>
+        <v>0.9914037136874981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035205294500164</v>
+        <v>0.9569180184687709</v>
       </c>
       <c r="D3">
-        <v>1.042231984745102</v>
+        <v>0.9710761024774074</v>
       </c>
       <c r="E3">
-        <v>1.034140018643152</v>
+        <v>0.9678304149821764</v>
       </c>
       <c r="F3">
-        <v>1.049703860060464</v>
+        <v>0.972164847414801</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.039968592958495</v>
+        <v>0.9786562563054704</v>
       </c>
       <c r="K3">
-        <v>1.04482217148767</v>
+        <v>0.9820929541300145</v>
       </c>
       <c r="L3">
-        <v>1.036751634166233</v>
+        <v>0.9788921598942641</v>
       </c>
       <c r="M3">
-        <v>1.052274576819547</v>
+        <v>0.9831667245088999</v>
       </c>
       <c r="N3">
-        <v>1.01692184552827</v>
+        <v>0.994616970811397</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036492677772039</v>
+        <v>0.9636488967965153</v>
       </c>
       <c r="D4">
-        <v>1.043437184137004</v>
+        <v>0.9772001895763578</v>
       </c>
       <c r="E4">
-        <v>1.035258926093309</v>
+        <v>0.9735350127619881</v>
       </c>
       <c r="F4">
-        <v>1.051027453646606</v>
+        <v>0.9788254772273478</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.041021176213342</v>
+        <v>0.9840305026169133</v>
       </c>
       <c r="K4">
-        <v>1.045902485317221</v>
+        <v>0.9875818066033571</v>
       </c>
       <c r="L4">
-        <v>1.037744766336921</v>
+        <v>0.9839637018048968</v>
       </c>
       <c r="M4">
-        <v>1.053474000180529</v>
+        <v>0.9891863615453879</v>
       </c>
       <c r="N4">
-        <v>1.017293601880226</v>
+        <v>0.9966037883651589</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037033002415418</v>
+        <v>0.9664131936629093</v>
       </c>
       <c r="D5">
-        <v>1.043943040265627</v>
+        <v>0.9797170102971403</v>
       </c>
       <c r="E5">
-        <v>1.035728522832348</v>
+        <v>0.9758795718087533</v>
       </c>
       <c r="F5">
-        <v>1.051583117563117</v>
+        <v>0.9815633563114685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.041462757539928</v>
+        <v>0.9862368558848639</v>
       </c>
       <c r="K5">
-        <v>1.046355740361174</v>
+        <v>0.9898356357325413</v>
       </c>
       <c r="L5">
-        <v>1.038161382251197</v>
+        <v>0.9860459386599075</v>
       </c>
       <c r="M5">
-        <v>1.053977371825857</v>
+        <v>0.9916591769687056</v>
       </c>
       <c r="N5">
-        <v>1.017449343421187</v>
+        <v>0.9974185684920873</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037123673732544</v>
+        <v>0.9668736567344984</v>
       </c>
       <c r="D6">
-        <v>1.044027928877299</v>
+        <v>0.9801363465912108</v>
       </c>
       <c r="E6">
-        <v>1.035807324319759</v>
+        <v>0.9762702133025539</v>
       </c>
       <c r="F6">
-        <v>1.051676371226323</v>
+        <v>0.9820195580196468</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.041536847334351</v>
+        <v>0.9866043291091007</v>
       </c>
       <c r="K6">
-        <v>1.046431791159426</v>
+        <v>0.9902110409451867</v>
       </c>
       <c r="L6">
-        <v>1.038231281835209</v>
+        <v>0.986392747975494</v>
       </c>
       <c r="M6">
-        <v>1.054061839995004</v>
+        <v>0.9920711188220854</v>
       </c>
       <c r="N6">
-        <v>1.017475461354829</v>
+        <v>0.9975542165010758</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036499901085955</v>
+        <v>0.9636860830246724</v>
       </c>
       <c r="D7">
-        <v>1.043443946563794</v>
+        <v>0.9772340400544776</v>
       </c>
       <c r="E7">
-        <v>1.035265203953129</v>
+        <v>0.9735665459104027</v>
       </c>
       <c r="F7">
-        <v>1.051034881467698</v>
+        <v>0.9788622986052664</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.041027080251329</v>
+        <v>0.9840601865160927</v>
       </c>
       <c r="K7">
-        <v>1.045908545277516</v>
+        <v>0.9876121275586442</v>
       </c>
       <c r="L7">
-        <v>1.037750336678346</v>
+        <v>0.9839917152993511</v>
       </c>
       <c r="M7">
-        <v>1.053480729630006</v>
+        <v>0.9892196244036617</v>
       </c>
       <c r="N7">
-        <v>1.017295685038061</v>
+        <v>0.9966147539550718</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033885004760162</v>
+        <v>0.9497920789261991</v>
       </c>
       <c r="D8">
-        <v>1.040996066642931</v>
+        <v>0.9645991857510544</v>
       </c>
       <c r="E8">
-        <v>1.032992455666477</v>
+        <v>0.9617978148991798</v>
       </c>
       <c r="F8">
-        <v>1.048346920193924</v>
+        <v>0.9651222760792726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.038888436951764</v>
+        <v>0.9729641991583026</v>
       </c>
       <c r="K8">
-        <v>1.043713695853899</v>
+        <v>0.9762810401096056</v>
       </c>
       <c r="L8">
-        <v>1.035732404095281</v>
+        <v>0.9735213909597982</v>
       </c>
       <c r="M8">
-        <v>1.051044375663712</v>
+        <v>0.976796373994068</v>
       </c>
       <c r="N8">
-        <v>1.016539607745481</v>
+        <v>0.9925098321630871</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029246850724944</v>
+        <v>0.9227085806157673</v>
       </c>
       <c r="D9">
-        <v>1.036655025604318</v>
+        <v>0.9400475653283785</v>
       </c>
       <c r="E9">
-        <v>1.028960729416596</v>
+        <v>0.938939719265677</v>
       </c>
       <c r="F9">
-        <v>1.0435837807031</v>
+        <v>0.9384374824611635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.035088772547041</v>
+        <v>0.9513204746276301</v>
       </c>
       <c r="K9">
-        <v>1.039815468083833</v>
+        <v>0.9541944755429392</v>
       </c>
       <c r="L9">
-        <v>1.032146442497025</v>
+        <v>0.9531077602020436</v>
       </c>
       <c r="M9">
-        <v>1.046721816072014</v>
+        <v>0.9526151244205634</v>
       </c>
       <c r="N9">
-        <v>1.015189358393274</v>
+        <v>0.984481535071059</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026132796579068</v>
+        <v>0.9023489982790119</v>
       </c>
       <c r="D10">
-        <v>1.033741098287959</v>
+        <v>0.9216638944939221</v>
       </c>
       <c r="E10">
-        <v>1.026253606906328</v>
+        <v>0.9218376832671933</v>
       </c>
       <c r="F10">
-        <v>1.040388965633012</v>
+        <v>0.9184609986025499</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.0325334997304</v>
+        <v>0.9350547389425446</v>
       </c>
       <c r="K10">
-        <v>1.037194787113908</v>
+        <v>0.9376078656786264</v>
       </c>
       <c r="L10">
-        <v>1.029734393480451</v>
+        <v>0.9377777660794305</v>
       </c>
       <c r="M10">
-        <v>1.043818955894509</v>
+        <v>0.9344769831838011</v>
       </c>
       <c r="N10">
-        <v>1.0142767017768</v>
+        <v>0.9784434903595262</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024778827063529</v>
+        <v>0.8928177329775554</v>
       </c>
       <c r="D11">
-        <v>1.032474308917279</v>
+        <v>0.9130806611896602</v>
       </c>
       <c r="E11">
-        <v>1.025076533615259</v>
+        <v>0.9138579429524445</v>
       </c>
       <c r="F11">
-        <v>1.039000640693447</v>
+        <v>0.9091335060460779</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.031421500692188</v>
+        <v>0.9274454574282944</v>
       </c>
       <c r="K11">
-        <v>1.036054532196016</v>
+        <v>0.9298516386490981</v>
       </c>
       <c r="L11">
-        <v>1.028684610337648</v>
+        <v>0.9306102907427427</v>
       </c>
       <c r="M11">
-        <v>1.042556655902951</v>
+        <v>0.9259997488514996</v>
       </c>
       <c r="N11">
-        <v>1.013878453048855</v>
+        <v>0.9756205705785803</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024275036930368</v>
+        <v>0.8891507563915936</v>
       </c>
       <c r="D12">
-        <v>1.032002983224955</v>
+        <v>0.9097825073075221</v>
       </c>
       <c r="E12">
-        <v>1.024638560003959</v>
+        <v>0.9107926561665645</v>
       </c>
       <c r="F12">
-        <v>1.038484182377525</v>
+        <v>0.9055490959076854</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.031007596704836</v>
+        <v>0.9245192334491203</v>
       </c>
       <c r="K12">
-        <v>1.035630142264607</v>
+        <v>0.9268694158263397</v>
       </c>
       <c r="L12">
-        <v>1.028293847671017</v>
+        <v>0.9278547258828029</v>
       </c>
       <c r="M12">
-        <v>1.042086951809284</v>
+        <v>0.9227409137802055</v>
       </c>
       <c r="N12">
-        <v>1.013730057304736</v>
+        <v>0.9745355482377558</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024383141274503</v>
+        <v>0.8899434304108096</v>
       </c>
       <c r="D13">
-        <v>1.032104120081374</v>
+        <v>0.9104952590536405</v>
       </c>
       <c r="E13">
-        <v>1.024732541443186</v>
+        <v>0.9114550363429035</v>
       </c>
       <c r="F13">
-        <v>1.038594999873627</v>
+        <v>0.9063237250202879</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.031096419737626</v>
+        <v>0.9251517145077581</v>
       </c>
       <c r="K13">
-        <v>1.035721214142586</v>
+        <v>0.9275139769708343</v>
       </c>
       <c r="L13">
-        <v>1.028377705356544</v>
+        <v>0.9284502833905942</v>
       </c>
       <c r="M13">
-        <v>1.042187742914528</v>
+        <v>0.9234452341449997</v>
       </c>
       <c r="N13">
-        <v>1.013761910028578</v>
+        <v>0.9747700370074854</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024737201444767</v>
+        <v>0.8925173322334137</v>
       </c>
       <c r="D14">
-        <v>1.032435365131201</v>
+        <v>0.9128103881216212</v>
       </c>
       <c r="E14">
-        <v>1.025040346147723</v>
+        <v>0.9136067316526927</v>
       </c>
       <c r="F14">
-        <v>1.038957966018964</v>
+        <v>0.9088397818651741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.031387304905238</v>
+        <v>0.9272057100437624</v>
       </c>
       <c r="K14">
-        <v>1.036019469445282</v>
+        <v>0.929607292715784</v>
       </c>
       <c r="L14">
-        <v>1.028652326765827</v>
+        <v>0.9303845093049613</v>
       </c>
       <c r="M14">
-        <v>1.042517847098966</v>
+        <v>0.9257327270562996</v>
       </c>
       <c r="N14">
-        <v>1.01386619621502</v>
+        <v>0.9755316608266046</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024955234008424</v>
+        <v>0.8940857568690428</v>
       </c>
       <c r="D15">
-        <v>1.032639351487304</v>
+        <v>0.9142216818678396</v>
       </c>
       <c r="E15">
-        <v>1.025229893850178</v>
+        <v>0.9149185305033382</v>
       </c>
       <c r="F15">
-        <v>1.039181498183369</v>
+        <v>0.9103735189346904</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.031566414425138</v>
+        <v>0.9284575127924929</v>
       </c>
       <c r="K15">
-        <v>1.036203121201448</v>
+        <v>0.9308831268919902</v>
       </c>
       <c r="L15">
-        <v>1.028821419880529</v>
+        <v>0.9315634226620396</v>
       </c>
       <c r="M15">
-        <v>1.042721124426384</v>
+        <v>0.9271269857743054</v>
       </c>
       <c r="N15">
-        <v>1.013930388052359</v>
+        <v>0.9759959134016785</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026222535333187</v>
+        <v>0.9029649599264223</v>
       </c>
       <c r="D16">
-        <v>1.033825062488291</v>
+        <v>0.9222191071924254</v>
       </c>
       <c r="E16">
-        <v>1.026331620682546</v>
+        <v>0.9223539787286107</v>
       </c>
       <c r="F16">
-        <v>1.040480997444552</v>
+        <v>0.9190643281329814</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.032607180461786</v>
+        <v>0.9355466406441728</v>
       </c>
       <c r="K16">
-        <v>1.037270344456556</v>
+        <v>0.9381093339129551</v>
       </c>
       <c r="L16">
-        <v>1.029803949482805</v>
+        <v>0.9382412015603971</v>
       </c>
       <c r="M16">
-        <v>1.043902615730691</v>
+        <v>0.9350251540446585</v>
       </c>
       <c r="N16">
-        <v>1.014303067002877</v>
+        <v>0.9786260368115907</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027015969617862</v>
+        <v>0.9083310650251694</v>
       </c>
       <c r="D17">
-        <v>1.034567459787456</v>
+        <v>0.9270585890359613</v>
       </c>
       <c r="E17">
-        <v>1.027021383557602</v>
+        <v>0.9268548257799273</v>
       </c>
       <c r="F17">
-        <v>1.041294793619089</v>
+        <v>0.9243231361000016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.033258522782283</v>
+        <v>0.9398326161293892</v>
       </c>
       <c r="K17">
-        <v>1.037938300148852</v>
+        <v>0.9424790168550582</v>
       </c>
       <c r="L17">
-        <v>1.030418816083113</v>
+        <v>0.9422796120765744</v>
       </c>
       <c r="M17">
-        <v>1.044642284737378</v>
+        <v>0.9398022876177784</v>
       </c>
       <c r="N17">
-        <v>1.014536012922803</v>
+        <v>0.9802167994544572</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027478231641089</v>
+        <v>0.9113935127279483</v>
       </c>
       <c r="D18">
-        <v>1.03500000313566</v>
+        <v>0.929822563128952</v>
       </c>
       <c r="E18">
-        <v>1.027423242214803</v>
+        <v>0.9294258507643552</v>
       </c>
       <c r="F18">
-        <v>1.041768991645075</v>
+        <v>0.9273265596099055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.033637905997685</v>
+        <v>0.9422790988049538</v>
       </c>
       <c r="K18">
-        <v>1.03832738008622</v>
+        <v>0.9449735691608809</v>
       </c>
       <c r="L18">
-        <v>1.030776942719599</v>
+        <v>0.9445851444157395</v>
       </c>
       <c r="M18">
-        <v>1.045073207538318</v>
+        <v>0.9425298651945974</v>
       </c>
       <c r="N18">
-        <v>1.014671591430781</v>
+        <v>0.9811249635700247</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027635761231493</v>
+        <v>0.912426781496409</v>
       </c>
       <c r="D19">
-        <v>1.035147407869116</v>
+        <v>0.93075546248494</v>
       </c>
       <c r="E19">
-        <v>1.02756018692078</v>
+        <v>0.9302936977767966</v>
       </c>
       <c r="F19">
-        <v>1.041930601136433</v>
+        <v>0.9283402759645907</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.033767176070035</v>
+        <v>0.9431046081907773</v>
       </c>
       <c r="K19">
-        <v>1.038459957592012</v>
+        <v>0.9458153465855027</v>
       </c>
       <c r="L19">
-        <v>1.030898968036121</v>
+        <v>0.945363151050186</v>
       </c>
       <c r="M19">
-        <v>1.045220054771652</v>
+        <v>0.9434503492876196</v>
       </c>
       <c r="N19">
-        <v>1.014717770427696</v>
+        <v>0.981431418529272</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026930897155922</v>
+        <v>0.907762438446526</v>
       </c>
       <c r="D20">
-        <v>1.034487857882049</v>
+        <v>0.9265455468514538</v>
       </c>
       <c r="E20">
-        <v>1.026947427148485</v>
+        <v>0.9263776341108894</v>
       </c>
       <c r="F20">
-        <v>1.04120753038543</v>
+        <v>0.9237656457469697</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.033188695298134</v>
+        <v>0.9393783951991642</v>
       </c>
       <c r="K20">
-        <v>1.037866689545705</v>
+        <v>0.9420158944356497</v>
       </c>
       <c r="L20">
-        <v>1.030352900111843</v>
+        <v>0.941851588954514</v>
       </c>
       <c r="M20">
-        <v>1.044562978573577</v>
+        <v>0.9392959379176902</v>
       </c>
       <c r="N20">
-        <v>1.014511050593771</v>
+        <v>0.9800481965423856</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02463296368405</v>
+        <v>0.8917630579313229</v>
       </c>
       <c r="D21">
-        <v>1.032337843569791</v>
+        <v>0.9121318289981478</v>
       </c>
       <c r="E21">
-        <v>1.024949726405382</v>
+        <v>0.9129760461586168</v>
       </c>
       <c r="F21">
-        <v>1.038851103099653</v>
+        <v>0.9081023403413891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.031301670356717</v>
+        <v>0.9266037526188752</v>
       </c>
       <c r="K21">
-        <v>1.035931664315433</v>
+        <v>0.9289937975695772</v>
       </c>
       <c r="L21">
-        <v>1.028571480603898</v>
+        <v>0.929817630266516</v>
       </c>
       <c r="M21">
-        <v>1.04242066276641</v>
+        <v>0.925062307674868</v>
       </c>
       <c r="N21">
-        <v>1.013835499531121</v>
+        <v>0.9753084364006976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023183138755013</v>
+        <v>0.8809572275756615</v>
       </c>
       <c r="D22">
-        <v>1.030981496454732</v>
+        <v>0.9024215206533378</v>
       </c>
       <c r="E22">
-        <v>1.023689305324463</v>
+        <v>0.9039534740567977</v>
       </c>
       <c r="F22">
-        <v>1.037365038888681</v>
+        <v>0.8975484776447863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.030110246246444</v>
+        <v>0.917983931349601</v>
       </c>
       <c r="K22">
-        <v>1.034710115551421</v>
+        <v>0.920210045290204</v>
       </c>
       <c r="L22">
-        <v>1.027446638298702</v>
+        <v>0.9217021752955212</v>
       </c>
       <c r="M22">
-        <v>1.041068889878637</v>
+        <v>0.91546490504774</v>
       </c>
       <c r="N22">
-        <v>1.01340803931967</v>
+        <v>0.9721137335669029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023952204531718</v>
+        <v>0.886764209340805</v>
       </c>
       <c r="D23">
-        <v>1.031700961772326</v>
+        <v>0.9076372430145908</v>
       </c>
       <c r="E23">
-        <v>1.024357902465237</v>
+        <v>0.9087991630330937</v>
       </c>
       <c r="F23">
-        <v>1.038153264580367</v>
+        <v>0.9032175345637834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.030742322659691</v>
+        <v>0.9226152238950825</v>
       </c>
       <c r="K23">
-        <v>1.035358156535574</v>
+        <v>0.9249291187176977</v>
       </c>
       <c r="L23">
-        <v>1.028043400484504</v>
+        <v>0.9260619950357886</v>
       </c>
       <c r="M23">
-        <v>1.04178595569624</v>
+        <v>0.9206208091651217</v>
       </c>
       <c r="N23">
-        <v>1.013634904183486</v>
+        <v>0.9738297558604984</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026969339391033</v>
+        <v>0.9080195835555056</v>
       </c>
       <c r="D24">
-        <v>1.034523828052759</v>
+        <v>0.9267775490921343</v>
       </c>
       <c r="E24">
-        <v>1.026980846312841</v>
+        <v>0.9265934230240779</v>
       </c>
       <c r="F24">
-        <v>1.041246962352938</v>
+        <v>0.9240177479579867</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.033220248981015</v>
+        <v>0.9395838022021705</v>
       </c>
       <c r="K24">
-        <v>1.03789904892345</v>
+        <v>0.942225325957617</v>
       </c>
       <c r="L24">
-        <v>1.030382686291499</v>
+        <v>0.9420451477101147</v>
       </c>
       <c r="M24">
-        <v>1.044598815201521</v>
+        <v>0.9395249162044689</v>
       </c>
       <c r="N24">
-        <v>1.014522330906809</v>
+        <v>0.9801244414470873</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030449680348662</v>
+        <v>0.9300688501248005</v>
       </c>
       <c r="D25">
-        <v>1.037780694888123</v>
+        <v>0.9467092273805238</v>
       </c>
       <c r="E25">
-        <v>1.030006337236424</v>
+        <v>0.9451401161389505</v>
       </c>
       <c r="F25">
-        <v>1.044818472727445</v>
+        <v>0.9456767683210111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.036074890452035</v>
+        <v>0.9572028131682533</v>
       </c>
       <c r="K25">
-        <v>1.040827012393664</v>
+        <v>0.960195272795861</v>
       </c>
       <c r="L25">
-        <v>1.033077186371113</v>
+        <v>0.9586542712110619</v>
       </c>
       <c r="M25">
-        <v>1.047842926655275</v>
+        <v>0.9591812959669842</v>
       </c>
       <c r="N25">
-        <v>1.015540600153758</v>
+        <v>0.9866650098779132</v>
       </c>
     </row>
   </sheetData>
